--- a/v11/XRay/ProblemDefinition/XRayInput_new.xlsx
+++ b/v11/XRay/ProblemDefinition/XRayInput_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15495" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15495" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Design Variables" sheetId="1" r:id="rId1"/>
@@ -1112,8 +1112,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1260,7 +1260,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
